--- a/src/main/java/com/cogmento/ui/data/TestData.xlsx
+++ b/src/main/java/com/cogmento/ui/data/TestData.xlsx
@@ -1,23 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{43374462-207B-44C7-B93F-AA2FB63C2C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2688" yWindow="3288" windowWidth="14880" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Mr Aziz</t>
+  </si>
+  <si>
+    <t>Mr Farhan</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>mfa@yopmail.com</t>
+  </si>
+  <si>
+    <t>Babar</t>
+  </si>
+  <si>
+    <t>Mr Siraj</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>shq@yopmail.com</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +74,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,17 +114,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -100,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,9 +216,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,6 +268,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,36 +460,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{8A9E375A-53D9-4C8F-B206-24941AB7F3EE}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{79F1FBDB-166B-4A2C-BDFC-33DADEA1BE99}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
